--- a/WBSガントチャート_LV50.xlsx
+++ b/WBSガントチャート_LV50.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423BF870-3891-4B67-A1D5-2FA00E3338CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E99F278-DC5E-4036-A73B-D50337D24542}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="92">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -795,6 +795,10 @@
     <rPh sb="3" eb="5">
       <t>フクオカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片岡,源川、山本</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11484,10 +11488,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -11662,7 +11666,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="45">
         <f t="shared" ref="K5:S5" si="0">SUM(K7,K23,K43,K59,K77,K85,K99)</f>
-        <v>109.25</v>
+        <v>104.25</v>
       </c>
       <c r="L5" s="27">
         <f t="shared" si="0"/>
@@ -11670,11 +11674,11 @@
       </c>
       <c r="M5" s="27">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>16.25</v>
       </c>
       <c r="N5" s="27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="O5" s="27">
         <f t="shared" si="0"/>
@@ -11682,15 +11686,15 @@
       </c>
       <c r="P5" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="Q5" s="27">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>16.25</v>
       </c>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="S5" s="27">
         <f t="shared" si="0"/>
@@ -11712,7 +11716,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f t="shared" ref="K6:S6" si="1">SUM(L8,L24,L44,L60,L78,L86)</f>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" si="1"/>
@@ -11814,11 +11818,11 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="M8" s="29">
         <f t="shared" si="3"/>
@@ -11998,7 +12002,7 @@
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="J13" s="8">
         <v>3</v>
@@ -12030,13 +12034,20 @@
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="I14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="8">
+        <v>3</v>
+      </c>
       <c r="K14" s="10">
         <f>SUM(L14:S14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="33"/>
+        <v>3.75</v>
+      </c>
+      <c r="L14" s="33">
+        <f>1.25*3</f>
+        <v>3.75</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
@@ -12150,13 +12161,19 @@
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
       <c r="K18" s="10">
         <f t="shared" ref="K18:K20" si="4">SUM(L18:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="41"/>
+        <v>1.25</v>
+      </c>
+      <c r="L18" s="41">
+        <v>1.25</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
@@ -12219,13 +12236,20 @@
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2</v>
+      </c>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="33">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
@@ -12288,13 +12312,20 @@
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
       <c r="K22" s="10">
         <f>SUM(L22:S22)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="33"/>
+        <v>0.25</v>
+      </c>
+      <c r="L22" s="33">
+        <f>0.25</f>
+        <v>0.25</v>
+      </c>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
@@ -12320,7 +12351,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21">
         <f t="shared" ref="K23:S23" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>22</v>
+        <v>20.75</v>
       </c>
       <c r="L23" s="34">
         <f t="shared" si="5"/>
@@ -12328,7 +12359,7 @@
       </c>
       <c r="M23" s="35">
         <f t="shared" si="5"/>
-        <v>17.5</v>
+        <v>16.25</v>
       </c>
       <c r="N23" s="35">
         <f t="shared" si="5"/>
@@ -12483,15 +12514,15 @@
       </c>
       <c r="K27" s="9">
         <f t="shared" ref="K27:K34" si="7">SUM(L27:S27)</f>
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="L27" s="30">
         <f>3</f>
         <v>3</v>
       </c>
       <c r="M27" s="31">
-        <f>1.5*3</f>
-        <v>4.5</v>
+        <f>1.25*3</f>
+        <v>3.75</v>
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
@@ -12553,15 +12584,15 @@
       </c>
       <c r="K29" s="9">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L29" s="30">
         <f>0.75*2</f>
         <v>1.5</v>
       </c>
       <c r="M29" s="31">
-        <f>1.5*2</f>
-        <v>3</v>
+        <f>1.25*2</f>
+        <v>2.5</v>
       </c>
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
@@ -13000,7 +13031,7 @@
       <c r="J43" s="20"/>
       <c r="K43" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=1)*K$45:K$58)</f>
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="L43" s="35">
         <f t="shared" ref="L43:M43" si="8">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
@@ -13012,7 +13043,7 @@
       </c>
       <c r="N43" s="35">
         <f>SUMPRODUCT((MOD(ROW(N$45:N$58),2)=1)*N$45:N$58)</f>
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="O43" s="35">
         <f t="shared" ref="O43:S43" si="9">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
@@ -13163,13 +13194,13 @@
       </c>
       <c r="K47" s="9">
         <f>SUM(L47:S47)</f>
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="L47" s="33"/>
       <c r="M47" s="31"/>
       <c r="N47" s="31">
-        <f>2*3</f>
-        <v>6</v>
+        <f>1.75*3</f>
+        <v>5.25</v>
       </c>
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
@@ -13230,13 +13261,13 @@
       </c>
       <c r="K49" s="9">
         <f>SUM(L49:S49)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L49" s="33"/>
       <c r="M49" s="31"/>
       <c r="N49" s="31">
-        <f>2*2</f>
-        <v>4</v>
+        <f>1.75*2</f>
+        <v>3.5</v>
       </c>
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
@@ -14132,7 +14163,7 @@
       <c r="J77" s="20"/>
       <c r="K77" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=1)*K$79:K$84)</f>
-        <v>22.5</v>
+        <v>21.25</v>
       </c>
       <c r="L77" s="35">
         <f t="shared" ref="L77:O77" si="17">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
@@ -14150,7 +14181,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P77" s="35"/>
+      <c r="P77" s="35">
+        <f>SUMPRODUCT((MOD(ROW(P$79:P$84),2)=1)*P$79:P$84)</f>
+        <v>13.75</v>
+      </c>
       <c r="Q77" s="35">
         <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=1)*Q$79:Q$84)</f>
         <v>7.5</v>
@@ -14290,15 +14324,15 @@
       </c>
       <c r="K81" s="9">
         <f t="shared" ref="K81:K84" si="20">SUM(L81:S81)</f>
-        <v>13.5</v>
+        <v>12.75</v>
       </c>
       <c r="L81" s="33"/>
       <c r="M81" s="31"/>
       <c r="N81" s="31"/>
       <c r="O81" s="31"/>
       <c r="P81" s="31">
-        <f>3*3</f>
-        <v>9</v>
+        <f>2.75*3</f>
+        <v>8.25</v>
       </c>
       <c r="Q81" s="31">
         <f>1.5*3</f>
@@ -14358,15 +14392,15 @@
       </c>
       <c r="K83" s="9">
         <f t="shared" si="20"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L83" s="33"/>
       <c r="M83" s="31"/>
       <c r="N83" s="31"/>
       <c r="O83" s="31"/>
       <c r="P83" s="31">
-        <f>3*2</f>
-        <v>6</v>
+        <f>2.75*2</f>
+        <v>5.5</v>
       </c>
       <c r="Q83" s="31">
         <f>1.5*2</f>
@@ -14419,7 +14453,7 @@
       <c r="J85" s="20"/>
       <c r="K85" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$87:K$98),2)=1)*K$87:K$98)</f>
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="L85" s="35">
         <f t="shared" ref="L85:P85" si="21">SUMPRODUCT((MOD(ROW(L$87:L$98),2)=1)*L$87:L$98)</f>
@@ -14443,7 +14477,7 @@
       </c>
       <c r="Q85" s="35">
         <f>SUMPRODUCT((MOD(ROW(Q$87:Q$98),2)=1)*Q$87:Q$98)</f>
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="R85" s="35"/>
       <c r="S85" s="35">
@@ -14577,7 +14611,7 @@
       </c>
       <c r="K89" s="9">
         <f>SUM(L89:S89)</f>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L89" s="33"/>
       <c r="M89" s="31"/>
@@ -14585,8 +14619,8 @@
       <c r="O89" s="31"/>
       <c r="P89" s="31"/>
       <c r="Q89" s="31">
-        <f>1.5*3</f>
-        <v>4.5</v>
+        <f>1.25*3</f>
+        <v>3.75</v>
       </c>
       <c r="R89" s="31"/>
       <c r="S89" s="31"/>
@@ -14642,7 +14676,7 @@
       </c>
       <c r="K91" s="9">
         <f>SUM(L91:S91)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L91" s="33"/>
       <c r="M91" s="31"/>
@@ -14650,8 +14684,8 @@
       <c r="O91" s="31"/>
       <c r="P91" s="31"/>
       <c r="Q91" s="31">
-        <f>1.5*2</f>
-        <v>3</v>
+        <f>1.25*2</f>
+        <v>2.5</v>
       </c>
       <c r="R91" s="31"/>
       <c r="S91" s="31"/>
@@ -14904,11 +14938,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q99" s="35">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35">
+        <f>SUMPRODUCT((MOD(ROW(R$101:R$112),2)=1)*R$101:R$112)</f>
+        <v>12.5</v>
+      </c>
       <c r="S99" s="35">
         <f>SUMPRODUCT((MOD(ROW(S$101:S$112),2)=1)*S$101:S$112)</f>
         <v>0</v>
